--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_8_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_8_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1430065.606066696</v>
+        <v>1427247.323041786</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4129894.093151569</v>
+        <v>4129894.093151567</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5119633.367422727</v>
+        <v>5119633.36742273</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8241686.591871445</v>
+        <v>8241686.591871444</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>333.4622370367755</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>206.4273261198316</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +788,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>133.5813703291307</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>19.85905444009093</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>119.3168138600973</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>242.3319924598732</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>223.6011878312096</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>44.10352982286062</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>140.0446022246259</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>22.78410482776474</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>109.3713490748921</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>248.4079124821737</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T11" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>59.13174008397318</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>384.0082226587663</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>136.2839955554273</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V13" t="n">
-        <v>60.93313188467484</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>79.36012109905235</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T14" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U14" t="n">
-        <v>174.004566683604</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -1675,7 +1675,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>37.13668678360295</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
@@ -1782,13 +1782,13 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H16" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.085091836852</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>34.99516829810527</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>210.4744506252374</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -1897,22 +1897,22 @@
         <v>147.8015729229842</v>
       </c>
       <c r="T17" t="n">
-        <v>217.9908812904515</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>295.0008339930841</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>117.7237139272778</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>150.9403106068158</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>121.6722041362075</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.41567730238424</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>117.660240616395</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -2095,10 +2095,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>408.2830491160485</v>
       </c>
       <c r="H20" t="n">
-        <v>310.4900547247617</v>
+        <v>313.180957500541</v>
       </c>
       <c r="I20" t="n">
         <v>108.1134362274254</v>
@@ -2137,7 +2137,7 @@
         <v>217.9908812904515</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1353559624811</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,16 +2241,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
         <v>150.9403106068158</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>121.6722041362075</v>
       </c>
       <c r="J22" t="n">
-        <v>6.350224769714952</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>231.9280946334754</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>170.0297287174351</v>
+        <v>106.9205553710604</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -2335,7 +2335,7 @@
         <v>408.2830491160485</v>
       </c>
       <c r="H23" t="n">
-        <v>313.180957500541</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.9908812904515</v>
+        <v>133.909259325103</v>
       </c>
       <c r="U23" t="n">
         <v>253.1353559624811</v>
@@ -2380,13 +2380,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>355.3062154319267</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>23.88472367529479</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>114.8971516432292</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>150.9403106068158</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>107.5738730925879</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.9399852654295</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>231.9280946334754</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5661004360929</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>133.8885711923371</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>408.2830491160485</v>
@@ -2575,7 +2575,7 @@
         <v>313.180957500541</v>
       </c>
       <c r="I26" t="n">
-        <v>108.1134362274254</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>147.8015729229842</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.9908812904515</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1353559624811</v>
+        <v>212.2301019399772</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>107.5738730925879</v>
       </c>
       <c r="S28" t="n">
-        <v>194.9399852654295</v>
+        <v>96.57361589547241</v>
       </c>
       <c r="T28" t="n">
         <v>231.9280946334754</v>
@@ -2772,7 +2772,7 @@
         <v>282.5661004360929</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>114.8971516432292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -2806,13 +2806,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>408.2830491160485</v>
       </c>
       <c r="H29" t="n">
-        <v>68.28641800028993</v>
+        <v>76.10520227433572</v>
       </c>
       <c r="I29" t="n">
-        <v>108.1134362274254</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>147.8015729229842</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.9908812904515</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.1353559624811</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>144.1065332915252</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>107.5738730925879</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>194.9399852654295</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>94.76138639048354</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>408.2830491160485</v>
       </c>
       <c r="H32" t="n">
-        <v>192.6355500587544</v>
+        <v>313.180957500541</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>217.9908812904515</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1353559624811</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>295.0008339930846</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>81.55369738729023</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>107.5738730925879</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>194.9399852654295</v>
@@ -3246,16 +3246,16 @@
         <v>282.5661004360929</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>114.8971516432297</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -3280,13 +3280,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>408.2830491160485</v>
+        <v>365.6221437788051</v>
       </c>
       <c r="H35" t="n">
         <v>313.180957500541</v>
       </c>
       <c r="I35" t="n">
-        <v>69.89966152136483</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>147.8015729229842</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1353559624811</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>9.785634721118784</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>136.9139119531122</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>107.5738730925879</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.9399852654295</v>
       </c>
       <c r="T37" t="n">
-        <v>231.9280946334754</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5661004360929</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -3505,7 +3505,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>379.7985635153992</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -3520,10 +3520,10 @@
         <v>408.2830491160485</v>
       </c>
       <c r="H38" t="n">
-        <v>313.180957500541</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>108.1134362274254</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>147.8015729229842</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>174.3059740800189</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>152.3512997251489</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>194.9399852654295</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>195.805306707341</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -3754,7 +3754,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>327.5643509816541</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.9908812904515</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1353559624811</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>292.470299953989</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>111.5885820419345</v>
       </c>
       <c r="G43" t="n">
-        <v>114.8971516432297</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>107.5738730925879</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>194.9399852654295</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>231.9280946334754</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5661004360929</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,16 +3979,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>309.2953166467757</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>255.9322729757991</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>114.8971516432297</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.2359509470872</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>150.9403106068158</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>121.6722041362075</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>107.5738730925879</v>
       </c>
       <c r="S46" t="n">
-        <v>194.9399852654295</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>231.9280946334754</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5661004360929</v>
+        <v>94.29447466084441</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1195.60143128788</v>
+        <v>1199.043915487289</v>
       </c>
       <c r="C2" t="n">
-        <v>1195.60143128788</v>
+        <v>805.8684139902196</v>
       </c>
       <c r="D2" t="n">
-        <v>810.1603025045481</v>
+        <v>805.8684139902196</v>
       </c>
       <c r="E2" t="n">
-        <v>473.3297600431586</v>
+        <v>403.2848891067641</v>
       </c>
       <c r="F2" t="n">
-        <v>56.43532157313638</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
         <v>47.31297010154361</v>
@@ -4333,22 +4333,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L2" t="n">
-        <v>540.6332618200724</v>
+        <v>846.5749518678007</v>
       </c>
       <c r="M2" t="n">
-        <v>1086.634161864653</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N2" t="n">
-        <v>1614.445445502115</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.64850507718</v>
@@ -4357,25 +4357,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V2" t="n">
-        <v>1985.548782066221</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W2" t="n">
-        <v>1985.548782066221</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="X2" t="n">
-        <v>1596.096176999277</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="Y2" t="n">
-        <v>1596.096176999277</v>
+        <v>1199.043915487289</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>480.1670983834975</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L3" t="n">
-        <v>963.7331842818107</v>
+        <v>160.427952321271</v>
       </c>
       <c r="M3" t="n">
-        <v>1549.231189288413</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N3" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>2065.751471879394</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
         <v>2131.28341352229</v>
@@ -4436,16 +4436,16 @@
         <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>371.0455750406041</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="C4" t="n">
-        <v>371.0455750406041</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="D4" t="n">
-        <v>371.0455750406041</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="E4" t="n">
-        <v>371.0455750406041</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="F4" t="n">
-        <v>371.0455750406041</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="G4" t="n">
-        <v>202.7915211400496</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J4" t="n">
         <v>47.31297010154361</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="W4" t="n">
-        <v>828.2379584409776</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="X4" t="n">
-        <v>594.1576362239607</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="Y4" t="n">
-        <v>371.0455750406041</v>
+        <v>366.2642166768698</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1042.192600840176</v>
+        <v>748.4469575602968</v>
       </c>
       <c r="C5" t="n">
-        <v>1042.192600840176</v>
+        <v>748.4469575602968</v>
       </c>
       <c r="D5" t="n">
-        <v>1042.192600840176</v>
+        <v>748.4469575602968</v>
       </c>
       <c r="E5" t="n">
-        <v>797.412810476668</v>
+        <v>748.4469575602968</v>
       </c>
       <c r="F5" t="n">
-        <v>784.5587760470498</v>
+        <v>735.5929231306786</v>
       </c>
       <c r="G5" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I5" t="n">
         <v>47.31297010154361</v>
@@ -4576,13 +4576,13 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1590.266290800943</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N5" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
         <v>2180.802944936232</v>
@@ -4591,28 +4591,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U5" t="n">
-        <v>2199.134950018231</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V5" t="n">
-        <v>2199.134950018231</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="W5" t="n">
-        <v>1828.135914986518</v>
+        <v>1534.390271706639</v>
       </c>
       <c r="X5" t="n">
-        <v>1438.683309919575</v>
+        <v>1144.937666639696</v>
       </c>
       <c r="Y5" t="n">
-        <v>1042.192600840176</v>
+        <v>748.4469575602968</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L6" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1436.116207068686</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N6" t="n">
-        <v>2021.614212075288</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O6" t="n">
-        <v>2021.614212075288</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.64850507718</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N7" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O7" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P7" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q7" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>2241.747515709757</v>
+        <v>832.3417691813077</v>
       </c>
       <c r="T7" t="n">
-        <v>2241.747515709757</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="U7" t="n">
-        <v>2241.747515709757</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V7" t="n">
-        <v>2197.198495686666</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W7" t="n">
-        <v>1913.868093617844</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X7" t="n">
-        <v>1679.787771400827</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y7" t="n">
-        <v>1679.787771400827</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1604.036739400527</v>
+        <v>1399.691530617482</v>
       </c>
       <c r="C8" t="n">
-        <v>1604.036739400527</v>
+        <v>1399.691530617482</v>
       </c>
       <c r="D8" t="n">
-        <v>1604.036739400527</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>2023.541695780699</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W8" t="n">
-        <v>2000.527448479926</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X8" t="n">
-        <v>2000.527448479926</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="Y8" t="n">
-        <v>1604.036739400527</v>
+        <v>1541.150724783771</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1029.265125924707</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.763130931309</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.28341352229</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>371.1258361428955</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="C10" t="n">
-        <v>371.1258361428955</v>
+        <v>714.3828930990144</v>
       </c>
       <c r="D10" t="n">
-        <v>371.1258361428955</v>
+        <v>558.7497800015292</v>
       </c>
       <c r="E10" t="n">
-        <v>215.5670240020981</v>
+        <v>558.7497800015292</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4989,25 +4989,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>622.0429194582225</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>371.1258361428955</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V10" t="n">
-        <v>371.1258361428955</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W10" t="n">
-        <v>371.1258361428955</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X10" t="n">
-        <v>371.1258361428955</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y10" t="n">
-        <v>371.1258361428955</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1353.507084570854</v>
+        <v>977.4739791739078</v>
       </c>
       <c r="C11" t="n">
-        <v>960.3315830737845</v>
+        <v>977.4739791739078</v>
       </c>
       <c r="D11" t="n">
-        <v>574.8904542904522</v>
+        <v>977.4739791739078</v>
       </c>
       <c r="E11" t="n">
         <v>574.8904542904522</v>
@@ -5041,25 +5041,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>242.2750666411637</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K11" t="n">
-        <v>242.2750666411637</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L11" t="n">
-        <v>827.7730716477658</v>
+        <v>632.8109751081457</v>
       </c>
       <c r="M11" t="n">
-        <v>991.3721982648919</v>
+        <v>1218.308980114748</v>
       </c>
       <c r="N11" t="n">
-        <v>1576.870203271494</v>
+        <v>1803.80698512135</v>
       </c>
       <c r="O11" t="n">
-        <v>2116.788276814643</v>
+        <v>2343.7250586645</v>
       </c>
       <c r="P11" t="n">
-        <v>2116.788276814643</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q11" t="n">
         <v>2365.64850507718</v>
@@ -5068,25 +5068,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2212.917427024876</v>
       </c>
       <c r="T11" t="n">
-        <v>2144.79552932213</v>
+        <v>1992.064451269826</v>
       </c>
       <c r="U11" t="n">
-        <v>2144.79552932213</v>
+        <v>1736.360107800334</v>
       </c>
       <c r="V11" t="n">
-        <v>1802.688720025649</v>
+        <v>1736.360107800334</v>
       </c>
       <c r="W11" t="n">
-        <v>1742.959689637797</v>
+        <v>1365.361072768621</v>
       </c>
       <c r="X11" t="n">
-        <v>1353.507084570854</v>
+        <v>1365.361072768621</v>
       </c>
       <c r="Y11" t="n">
-        <v>1353.507084570854</v>
+        <v>977.4739791739078</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154361</v>
+        <v>190.3936276018482</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154361</v>
+        <v>561.3488855811172</v>
       </c>
       <c r="L12" t="n">
-        <v>47.31297010154361</v>
+        <v>1113.781354412673</v>
       </c>
       <c r="M12" t="n">
-        <v>632.8109751081457</v>
+        <v>1113.781354412673</v>
       </c>
       <c r="N12" t="n">
-        <v>1218.308980114748</v>
+        <v>1113.781354412673</v>
       </c>
       <c r="O12" t="n">
-        <v>1582.590097806108</v>
+        <v>1699.279359419275</v>
       </c>
       <c r="P12" t="n">
-        <v>2048.777158475793</v>
+        <v>2165.46642008896</v>
       </c>
       <c r="Q12" t="n">
         <v>2323.628811163682</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1132.020675533498</v>
+        <v>184.9735716726823</v>
       </c>
       <c r="C13" t="n">
-        <v>961.8155575994867</v>
+        <v>184.9735716726823</v>
       </c>
       <c r="D13" t="n">
-        <v>806.1824445020015</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>650.623632361204</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>493.2976975741771</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>325.3149478845481</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>172.2485379213613</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
         <v>47.31297010154361</v>
@@ -5232,19 +5232,19 @@
         <v>1193.569293598826</v>
       </c>
       <c r="U13" t="n">
-        <v>1193.569293598826</v>
+        <v>908.1453002522317</v>
       </c>
       <c r="V13" t="n">
-        <v>1132.020675533498</v>
+        <v>642.1659550730559</v>
       </c>
       <c r="W13" t="n">
-        <v>1132.020675533498</v>
+        <v>642.1659550730559</v>
       </c>
       <c r="X13" t="n">
-        <v>1132.020675533498</v>
+        <v>408.085632856039</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.020675533498</v>
+        <v>184.9735716726823</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>440.488471598613</v>
+        <v>1260.505036906401</v>
       </c>
       <c r="C14" t="n">
-        <v>47.31297010154361</v>
+        <v>1260.505036906401</v>
       </c>
       <c r="D14" t="n">
-        <v>47.31297010154361</v>
+        <v>1260.505036906401</v>
       </c>
       <c r="E14" t="n">
-        <v>47.31297010154361</v>
+        <v>857.9215120229455</v>
       </c>
       <c r="F14" t="n">
-        <v>47.31297010154361</v>
+        <v>857.9215120229455</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154361</v>
+        <v>445.3635827098141</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>127.4747085854349</v>
       </c>
       <c r="I14" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>242.2750666411637</v>
       </c>
       <c r="K14" t="n">
-        <v>481.7004571271097</v>
+        <v>676.6625536667298</v>
       </c>
       <c r="L14" t="n">
-        <v>1067.198462133712</v>
+        <v>1262.160558673332</v>
       </c>
       <c r="M14" t="n">
-        <v>1652.696467140314</v>
+        <v>1262.160558673332</v>
       </c>
       <c r="N14" t="n">
-        <v>2238.194472146916</v>
+        <v>1262.160558673332</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.194472146916</v>
+        <v>1683.356819045779</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2116.788276814643</v>
       </c>
       <c r="Q14" t="n">
         <v>2365.64850507718</v>
@@ -5305,25 +5305,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2212.917427024876</v>
       </c>
       <c r="T14" t="n">
-        <v>2144.79552932213</v>
+        <v>1992.064451269826</v>
       </c>
       <c r="U14" t="n">
-        <v>1969.033340752833</v>
+        <v>1992.064451269826</v>
       </c>
       <c r="V14" t="n">
-        <v>1626.926531456352</v>
+        <v>1649.957641973344</v>
       </c>
       <c r="W14" t="n">
-        <v>1626.926531456352</v>
+        <v>1649.957641973344</v>
       </c>
       <c r="X14" t="n">
-        <v>1237.473926389409</v>
+        <v>1260.505036906401</v>
       </c>
       <c r="Y14" t="n">
-        <v>840.9832173100099</v>
+        <v>1260.505036906401</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154361</v>
+        <v>190.3936276018482</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154361</v>
+        <v>561.3488855811172</v>
       </c>
       <c r="L15" t="n">
-        <v>599.7454389330993</v>
+        <v>1113.781354412673</v>
       </c>
       <c r="M15" t="n">
-        <v>599.7454389330993</v>
+        <v>1582.590097806108</v>
       </c>
       <c r="N15" t="n">
-        <v>1185.243443939702</v>
+        <v>1582.590097806108</v>
       </c>
       <c r="O15" t="n">
-        <v>1770.741448946304</v>
+        <v>1582.590097806108</v>
       </c>
       <c r="P15" t="n">
         <v>2048.777158475793</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>973.0126200609534</v>
+        <v>698.385584653008</v>
       </c>
       <c r="C16" t="n">
-        <v>973.0126200609534</v>
+        <v>528.1804667189972</v>
       </c>
       <c r="D16" t="n">
-        <v>817.3795069634682</v>
+        <v>528.1804667189972</v>
       </c>
       <c r="E16" t="n">
-        <v>661.8206948226707</v>
+        <v>372.6216545781997</v>
       </c>
       <c r="F16" t="n">
-        <v>504.4947600356437</v>
+        <v>215.2957197911726</v>
       </c>
       <c r="G16" t="n">
-        <v>336.5120103460147</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>183.445600382828</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>58.51003256301028</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
         <v>47.31297010154361</v>
@@ -5466,22 +5466,22 @@
         <v>1193.569293598826</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.220638752255</v>
+        <v>959.0094506682868</v>
       </c>
       <c r="U16" t="n">
-        <v>1158.220638752255</v>
+        <v>959.0094506682868</v>
       </c>
       <c r="V16" t="n">
-        <v>1158.220638752255</v>
+        <v>959.0094506682868</v>
       </c>
       <c r="W16" t="n">
-        <v>1158.220638752255</v>
+        <v>959.0094506682868</v>
       </c>
       <c r="X16" t="n">
-        <v>1158.220638752255</v>
+        <v>959.0094506682868</v>
       </c>
       <c r="Y16" t="n">
-        <v>1158.220638752255</v>
+        <v>735.8973894849302</v>
       </c>
     </row>
     <row r="17">
@@ -5515,7 +5515,7 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J17" t="n">
-        <v>287.1092503151861</v>
+        <v>287.1092503151863</v>
       </c>
       <c r="K17" t="n">
         <v>740.2984558531753</v>
@@ -5545,22 +5545,22 @@
         <v>3830.812654634548</v>
       </c>
       <c r="T17" t="n">
-        <v>3610.619845250254</v>
+        <v>3830.812654634548</v>
       </c>
       <c r="U17" t="n">
-        <v>3610.619845250254</v>
+        <v>3830.812654634548</v>
       </c>
       <c r="V17" t="n">
-        <v>3610.619845250254</v>
+        <v>3488.705845338067</v>
       </c>
       <c r="W17" t="n">
-        <v>3312.639204853199</v>
+        <v>3117.706810306354</v>
       </c>
       <c r="X17" t="n">
-        <v>3312.639204853199</v>
+        <v>2728.254205239411</v>
       </c>
       <c r="Y17" t="n">
-        <v>2916.1484957738</v>
+        <v>2728.254205239411</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J18" t="n">
-        <v>79.60214345477146</v>
+        <v>230.1545231602169</v>
       </c>
       <c r="K18" t="n">
-        <v>463.3277647610294</v>
+        <v>613.8801444664748</v>
       </c>
       <c r="L18" t="n">
-        <v>1032.93156304644</v>
+        <v>1183.483942751886</v>
       </c>
       <c r="M18" t="n">
-        <v>1041.870264436643</v>
+        <v>1192.422644142088</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.707528786128</v>
+        <v>1210.963545555389</v>
       </c>
       <c r="O18" t="n">
-        <v>2346.62573190295</v>
+        <v>1579.228908959864</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.62573190295</v>
+        <v>2060.517582431528</v>
       </c>
       <c r="Q18" t="n">
-        <v>2346.62573190295</v>
+        <v>2345.464263347374</v>
       </c>
       <c r="R18" t="n">
         <v>2346.62573190295</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>548.1200034800813</v>
+        <v>786.8402101981737</v>
       </c>
       <c r="C19" t="n">
-        <v>548.1200034800813</v>
+        <v>786.8402101981737</v>
       </c>
       <c r="D19" t="n">
-        <v>392.486890382596</v>
+        <v>631.2070971006885</v>
       </c>
       <c r="E19" t="n">
-        <v>236.9280782417985</v>
+        <v>512.2942547499028</v>
       </c>
       <c r="F19" t="n">
-        <v>79.60214345477146</v>
+        <v>354.9683199628758</v>
       </c>
       <c r="G19" t="n">
-        <v>79.60214345477146</v>
+        <v>354.9683199628758</v>
       </c>
       <c r="H19" t="n">
-        <v>79.60214345477146</v>
+        <v>202.503359753971</v>
       </c>
       <c r="I19" t="n">
         <v>79.60214345477146</v>
@@ -5682,10 +5682,10 @@
         <v>413.5513028848648</v>
       </c>
       <c r="M19" t="n">
-        <v>651.9178056362009</v>
+        <v>651.9178056362008</v>
       </c>
       <c r="N19" t="n">
-        <v>885.9441387711184</v>
+        <v>885.9441387711183</v>
       </c>
       <c r="O19" t="n">
         <v>1095.604825593285</v>
@@ -5700,25 +5700,25 @@
         <v>1286.899877594366</v>
       </c>
       <c r="S19" t="n">
-        <v>1190.520405571756</v>
+        <v>1286.899877594366</v>
       </c>
       <c r="T19" t="n">
-        <v>1190.520405571756</v>
+        <v>1286.899877594366</v>
       </c>
       <c r="U19" t="n">
-        <v>1190.520405571756</v>
+        <v>1286.899877594366</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.520405571756</v>
+        <v>1020.920532415191</v>
       </c>
       <c r="W19" t="n">
-        <v>1190.520405571756</v>
+        <v>1020.920532415191</v>
       </c>
       <c r="X19" t="n">
-        <v>956.4400833547393</v>
+        <v>786.8402101981737</v>
       </c>
       <c r="Y19" t="n">
-        <v>733.3280221713826</v>
+        <v>786.8402101981737</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2100.528546131264</v>
+        <v>2241.326976460683</v>
       </c>
       <c r="C20" t="n">
-        <v>1707.353044634195</v>
+        <v>2122.478248565334</v>
       </c>
       <c r="D20" t="n">
-        <v>1321.911915850862</v>
+        <v>1737.037119782002</v>
       </c>
       <c r="E20" t="n">
-        <v>919.3283909674069</v>
+        <v>1334.453594898546</v>
       </c>
       <c r="F20" t="n">
-        <v>502.4339524973847</v>
+        <v>917.5591564285239</v>
       </c>
       <c r="G20" t="n">
-        <v>502.4339524973847</v>
+        <v>505.152036109283</v>
       </c>
       <c r="H20" t="n">
         <v>188.807634593585</v>
@@ -5785,19 +5785,19 @@
         <v>3610.619845250254</v>
       </c>
       <c r="U20" t="n">
-        <v>3610.619845250254</v>
+        <v>3354.927566500273</v>
       </c>
       <c r="V20" t="n">
-        <v>3268.513035953772</v>
+        <v>3012.820757203792</v>
       </c>
       <c r="W20" t="n">
-        <v>2897.51400092206</v>
+        <v>2641.821722172079</v>
       </c>
       <c r="X20" t="n">
-        <v>2897.51400092206</v>
+        <v>2641.821722172079</v>
       </c>
       <c r="Y20" t="n">
-        <v>2501.023291842661</v>
+        <v>2641.821722172079</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>79.60214345477146</v>
       </c>
       <c r="K21" t="n">
-        <v>463.3277647610294</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="L21" t="n">
-        <v>1032.93156304644</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="M21" t="n">
-        <v>1558.169571891652</v>
+        <v>807.7757453004738</v>
       </c>
       <c r="N21" t="n">
-        <v>1576.710473304952</v>
+        <v>1566.613009649958</v>
       </c>
       <c r="O21" t="n">
-        <v>1579.228908959864</v>
+        <v>2177.412411195851</v>
       </c>
       <c r="P21" t="n">
-        <v>2060.517582431528</v>
+        <v>2346.62573190295</v>
       </c>
       <c r="Q21" t="n">
-        <v>2345.464263347374</v>
+        <v>2346.62573190295</v>
       </c>
       <c r="R21" t="n">
         <v>2346.62573190295</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>238.4814721179338</v>
+        <v>993.6912979221963</v>
       </c>
       <c r="C22" t="n">
-        <v>238.4814721179338</v>
+        <v>823.4861799881855</v>
       </c>
       <c r="D22" t="n">
-        <v>238.4814721179338</v>
+        <v>667.8530668907003</v>
       </c>
       <c r="E22" t="n">
-        <v>238.4814721179338</v>
+        <v>512.2942547499028</v>
       </c>
       <c r="F22" t="n">
-        <v>238.4814721179338</v>
+        <v>354.9683199628758</v>
       </c>
       <c r="G22" t="n">
-        <v>238.4814721179338</v>
+        <v>354.9683199628758</v>
       </c>
       <c r="H22" t="n">
-        <v>86.01651190902899</v>
+        <v>202.503359753971</v>
       </c>
       <c r="I22" t="n">
-        <v>86.01651190902899</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="J22" t="n">
         <v>79.60214345477146</v>
@@ -5940,22 +5940,22 @@
         <v>1286.899877594367</v>
       </c>
       <c r="T22" t="n">
-        <v>1052.629074934291</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="U22" t="n">
-        <v>1052.629074934291</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="V22" t="n">
-        <v>880.8818742096087</v>
+        <v>1178.899316613498</v>
       </c>
       <c r="W22" t="n">
-        <v>880.8818742096087</v>
+        <v>1178.899316613498</v>
       </c>
       <c r="X22" t="n">
-        <v>646.8015519925917</v>
+        <v>1178.899316613498</v>
       </c>
       <c r="Y22" t="n">
-        <v>423.6894908092351</v>
+        <v>1178.899316613498</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2013.27275742652</v>
+        <v>2090.103857407892</v>
       </c>
       <c r="C23" t="n">
-        <v>2013.27275742652</v>
+        <v>1696.928355910822</v>
       </c>
       <c r="D23" t="n">
-        <v>1627.831628643188</v>
+        <v>1311.48722712749</v>
       </c>
       <c r="E23" t="n">
-        <v>1225.248103759733</v>
+        <v>908.9037022440347</v>
       </c>
       <c r="F23" t="n">
-        <v>808.3536652897104</v>
+        <v>492.0092637740124</v>
       </c>
       <c r="G23" t="n">
-        <v>395.9465449704695</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="H23" t="n">
         <v>79.60214345477146</v>
@@ -5989,7 +5989,7 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J23" t="n">
-        <v>287.1092503151863</v>
+        <v>287.1092503151864</v>
       </c>
       <c r="K23" t="n">
         <v>740.2984558531757</v>
@@ -6019,22 +6019,22 @@
         <v>3980.107172738573</v>
       </c>
       <c r="T23" t="n">
-        <v>3759.914363354279</v>
+        <v>3844.845294632409</v>
       </c>
       <c r="U23" t="n">
-        <v>3504.222084604298</v>
+        <v>3589.153015882428</v>
       </c>
       <c r="V23" t="n">
-        <v>3162.115275307817</v>
+        <v>3247.046206585946</v>
       </c>
       <c r="W23" t="n">
-        <v>2803.22010820486</v>
+        <v>2876.047171554234</v>
       </c>
       <c r="X23" t="n">
-        <v>2413.767503137917</v>
+        <v>2486.594566487291</v>
       </c>
       <c r="Y23" t="n">
-        <v>2413.767503137917</v>
+        <v>2090.103857407892</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J24" t="n">
-        <v>79.60214345477146</v>
+        <v>230.1545231602169</v>
       </c>
       <c r="K24" t="n">
-        <v>79.60214345477146</v>
+        <v>613.8801444664749</v>
       </c>
       <c r="L24" t="n">
-        <v>649.2059417401827</v>
+        <v>1183.483942751886</v>
       </c>
       <c r="M24" t="n">
-        <v>1377.379543585885</v>
+        <v>1192.422644142088</v>
       </c>
       <c r="N24" t="n">
-        <v>2136.21680793537</v>
+        <v>1210.963545555389</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.464263347374</v>
+        <v>1579.228908959864</v>
       </c>
       <c r="P24" t="n">
-        <v>2345.464263347374</v>
+        <v>2060.517582431528</v>
       </c>
       <c r="Q24" t="n">
         <v>2345.464263347374</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2888.867167531534</v>
+        <v>713.4641468359698</v>
       </c>
       <c r="C25" t="n">
-        <v>2888.867167531534</v>
+        <v>543.259028901959</v>
       </c>
       <c r="D25" t="n">
-        <v>2888.867167531534</v>
+        <v>387.6259158044738</v>
       </c>
       <c r="E25" t="n">
-        <v>2888.867167531534</v>
+        <v>232.0671036636763</v>
       </c>
       <c r="F25" t="n">
-        <v>2772.809438598979</v>
+        <v>232.0671036636763</v>
       </c>
       <c r="G25" t="n">
-        <v>2772.809438598979</v>
+        <v>232.0671036636763</v>
       </c>
       <c r="H25" t="n">
-        <v>2772.809438598979</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="I25" t="n">
-        <v>2772.809438598979</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="J25" t="n">
-        <v>2772.809438598979</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="K25" t="n">
-        <v>2893.240868620308</v>
+        <v>200.0335734761012</v>
       </c>
       <c r="L25" t="n">
-        <v>3106.758598029072</v>
+        <v>413.5513028848648</v>
       </c>
       <c r="M25" t="n">
-        <v>3345.125100780408</v>
+        <v>651.9178056362009</v>
       </c>
       <c r="N25" t="n">
-        <v>3579.151433915325</v>
+        <v>885.9441387711184</v>
       </c>
       <c r="O25" t="n">
-        <v>3788.812120737492</v>
+        <v>1095.604825593285</v>
       </c>
       <c r="P25" t="n">
-        <v>3948.86718777206</v>
+        <v>1255.659892627853</v>
       </c>
       <c r="Q25" t="n">
-        <v>3980.107172738573</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="R25" t="n">
-        <v>3871.446694867273</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="S25" t="n">
-        <v>3674.537618841586</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="T25" t="n">
-        <v>3440.26681618151</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="U25" t="n">
-        <v>3154.846512710709</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="V25" t="n">
-        <v>2888.867167531534</v>
+        <v>1020.920532415191</v>
       </c>
       <c r="W25" t="n">
-        <v>2888.867167531534</v>
+        <v>737.5901303463686</v>
       </c>
       <c r="X25" t="n">
-        <v>2888.867167531534</v>
+        <v>737.5901303463686</v>
       </c>
       <c r="Y25" t="n">
-        <v>2888.867167531534</v>
+        <v>737.5901303463686</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1455.38366231434</v>
+        <v>2406.44825892359</v>
       </c>
       <c r="C26" t="n">
-        <v>1455.38366231434</v>
+        <v>2013.27275742652</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.142681311979</v>
+        <v>1627.831628643188</v>
       </c>
       <c r="E26" t="n">
-        <v>917.5591564285239</v>
+        <v>1225.248103759733</v>
       </c>
       <c r="F26" t="n">
-        <v>917.5591564285239</v>
+        <v>808.3536652897104</v>
       </c>
       <c r="G26" t="n">
-        <v>505.152036109283</v>
+        <v>395.9465449704695</v>
       </c>
       <c r="H26" t="n">
-        <v>188.807634593585</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="I26" t="n">
         <v>79.60214345477146</v>
@@ -6253,25 +6253,25 @@
         <v>3980.107172738573</v>
       </c>
       <c r="S26" t="n">
-        <v>3830.812654634548</v>
+        <v>3980.107172738573</v>
       </c>
       <c r="T26" t="n">
-        <v>3610.619845250254</v>
+        <v>3759.914363354279</v>
       </c>
       <c r="U26" t="n">
-        <v>3354.927566500273</v>
+        <v>3545.540523010867</v>
       </c>
       <c r="V26" t="n">
-        <v>3012.820757203792</v>
+        <v>3203.433713714386</v>
       </c>
       <c r="W26" t="n">
-        <v>2641.821722172079</v>
+        <v>3203.433713714386</v>
       </c>
       <c r="X26" t="n">
-        <v>2252.369117105136</v>
+        <v>3203.433713714386</v>
       </c>
       <c r="Y26" t="n">
-        <v>1855.878408025737</v>
+        <v>2806.943004634987</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J27" t="n">
-        <v>161.6132313701261</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="K27" t="n">
-        <v>545.338852676384</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="L27" t="n">
-        <v>1114.942650961795</v>
+        <v>248.81546416187</v>
       </c>
       <c r="M27" t="n">
-        <v>1843.116252807497</v>
+        <v>976.9890660075723</v>
       </c>
       <c r="N27" t="n">
-        <v>1861.657154220798</v>
+        <v>1735.826330357057</v>
       </c>
       <c r="O27" t="n">
-        <v>1864.17558987571</v>
+        <v>2346.62573190295</v>
       </c>
       <c r="P27" t="n">
-        <v>2345.464263347374</v>
+        <v>2346.62573190295</v>
       </c>
       <c r="Q27" t="n">
-        <v>2345.464263347374</v>
+        <v>2346.62573190295</v>
       </c>
       <c r="R27" t="n">
         <v>2346.62573190295</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2772.809438598978</v>
+        <v>560.999186627065</v>
       </c>
       <c r="C28" t="n">
-        <v>2772.809438598978</v>
+        <v>390.7940686930542</v>
       </c>
       <c r="D28" t="n">
-        <v>2772.809438598978</v>
+        <v>235.160955595569</v>
       </c>
       <c r="E28" t="n">
-        <v>2772.809438598978</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="F28" t="n">
-        <v>2772.809438598978</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="G28" t="n">
-        <v>2772.809438598978</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="H28" t="n">
-        <v>2772.809438598978</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="I28" t="n">
-        <v>2772.809438598978</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="J28" t="n">
-        <v>2772.809438598978</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="K28" t="n">
-        <v>2893.240868620308</v>
+        <v>200.0335734761012</v>
       </c>
       <c r="L28" t="n">
-        <v>3106.758598029071</v>
+        <v>413.5513028848648</v>
       </c>
       <c r="M28" t="n">
-        <v>3345.125100780408</v>
+        <v>651.9178056362009</v>
       </c>
       <c r="N28" t="n">
-        <v>3579.151433915325</v>
+        <v>885.9441387711184</v>
       </c>
       <c r="O28" t="n">
-        <v>3788.812120737492</v>
+        <v>1095.604825593285</v>
       </c>
       <c r="P28" t="n">
-        <v>3948.867187772059</v>
+        <v>1255.659892627853</v>
       </c>
       <c r="Q28" t="n">
-        <v>3980.107172738573</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="R28" t="n">
-        <v>3871.446694867272</v>
+        <v>1178.239399723066</v>
       </c>
       <c r="S28" t="n">
-        <v>3674.537618841586</v>
+        <v>1080.690292757942</v>
       </c>
       <c r="T28" t="n">
-        <v>3440.26681618151</v>
+        <v>846.4194900978659</v>
       </c>
       <c r="U28" t="n">
-        <v>3154.846512710709</v>
+        <v>560.999186627065</v>
       </c>
       <c r="V28" t="n">
-        <v>2888.867167531533</v>
+        <v>560.999186627065</v>
       </c>
       <c r="W28" t="n">
-        <v>2888.867167531533</v>
+        <v>560.999186627065</v>
       </c>
       <c r="X28" t="n">
-        <v>2888.867167531533</v>
+        <v>560.999186627065</v>
       </c>
       <c r="Y28" t="n">
-        <v>2772.809438598978</v>
+        <v>560.999186627065</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1855.878408025737</v>
+        <v>2166.97779909914</v>
       </c>
       <c r="C29" t="n">
-        <v>1462.702906528668</v>
+        <v>1773.802297602071</v>
       </c>
       <c r="D29" t="n">
-        <v>1077.261777745335</v>
+        <v>1388.361168818738</v>
       </c>
       <c r="E29" t="n">
-        <v>674.6782528618799</v>
+        <v>985.7776439352829</v>
       </c>
       <c r="F29" t="n">
-        <v>257.7838143918576</v>
+        <v>568.8832054652606</v>
       </c>
       <c r="G29" t="n">
-        <v>257.7838143918576</v>
+        <v>156.4760851460197</v>
       </c>
       <c r="H29" t="n">
-        <v>188.807634593585</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="I29" t="n">
         <v>79.60214345477146</v>
@@ -6490,25 +6490,25 @@
         <v>3980.107172738573</v>
       </c>
       <c r="S29" t="n">
-        <v>3830.812654634548</v>
+        <v>3980.107172738573</v>
       </c>
       <c r="T29" t="n">
-        <v>3610.619845250254</v>
+        <v>3980.107172738573</v>
       </c>
       <c r="U29" t="n">
-        <v>3354.927566500273</v>
+        <v>3724.414893988592</v>
       </c>
       <c r="V29" t="n">
-        <v>3012.820757203792</v>
+        <v>3724.414893988592</v>
       </c>
       <c r="W29" t="n">
-        <v>2641.821722172079</v>
+        <v>3353.415858956879</v>
       </c>
       <c r="X29" t="n">
-        <v>2252.369117105136</v>
+        <v>2963.963253889936</v>
       </c>
       <c r="Y29" t="n">
-        <v>1855.878408025737</v>
+        <v>2567.472544810537</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J30" t="n">
-        <v>79.60214345477146</v>
+        <v>230.1545231602169</v>
       </c>
       <c r="K30" t="n">
-        <v>79.60214345477146</v>
+        <v>613.8801444664749</v>
       </c>
       <c r="L30" t="n">
-        <v>649.2059417401827</v>
+        <v>1183.483942751886</v>
       </c>
       <c r="M30" t="n">
-        <v>1377.379543585885</v>
+        <v>1192.422644142088</v>
       </c>
       <c r="N30" t="n">
-        <v>1395.920444999186</v>
+        <v>1210.963545555389</v>
       </c>
       <c r="O30" t="n">
-        <v>1865.337058431286</v>
+        <v>1579.228908959864</v>
       </c>
       <c r="P30" t="n">
-        <v>2346.62573190295</v>
+        <v>2060.517582431528</v>
       </c>
       <c r="Q30" t="n">
-        <v>2346.62573190295</v>
+        <v>2345.464263347374</v>
       </c>
       <c r="R30" t="n">
         <v>2346.62573190295</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>835.7681688574551</v>
+        <v>1005.973286791466</v>
       </c>
       <c r="C31" t="n">
         <v>835.7681688574551</v>
@@ -6645,28 +6645,28 @@
         <v>1286.899877594367</v>
       </c>
       <c r="R31" t="n">
-        <v>1178.239399723066</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="S31" t="n">
-        <v>981.3303236973795</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="T31" t="n">
-        <v>981.3303236973795</v>
+        <v>1191.181305482767</v>
       </c>
       <c r="U31" t="n">
-        <v>981.3303236973795</v>
+        <v>1191.181305482767</v>
       </c>
       <c r="V31" t="n">
-        <v>981.3303236973795</v>
+        <v>1191.181305482767</v>
       </c>
       <c r="W31" t="n">
-        <v>981.3303236973795</v>
+        <v>1191.181305482767</v>
       </c>
       <c r="X31" t="n">
-        <v>981.3303236973795</v>
+        <v>1191.181305482767</v>
       </c>
       <c r="Y31" t="n">
-        <v>981.3303236973795</v>
+        <v>1191.181305482767</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1455.38366231434</v>
+        <v>2515.653750062404</v>
       </c>
       <c r="C32" t="n">
-        <v>1062.208160817271</v>
+        <v>2122.478248565334</v>
       </c>
       <c r="D32" t="n">
-        <v>676.7670320339384</v>
+        <v>1737.037119782002</v>
       </c>
       <c r="E32" t="n">
-        <v>274.183507150483</v>
+        <v>1334.453594898546</v>
       </c>
       <c r="F32" t="n">
-        <v>274.183507150483</v>
+        <v>917.5591564285239</v>
       </c>
       <c r="G32" t="n">
-        <v>274.183507150483</v>
+        <v>505.152036109283</v>
       </c>
       <c r="H32" t="n">
-        <v>79.60214345477146</v>
+        <v>188.807634593585</v>
       </c>
       <c r="I32" t="n">
         <v>79.60214345477146</v>
       </c>
       <c r="J32" t="n">
-        <v>287.1092503151864</v>
+        <v>287.1092503151863</v>
       </c>
       <c r="K32" t="n">
         <v>740.2984558531757</v>
@@ -6733,19 +6733,19 @@
         <v>3610.619845250254</v>
       </c>
       <c r="U32" t="n">
-        <v>3354.927566500273</v>
+        <v>3610.619845250254</v>
       </c>
       <c r="V32" t="n">
-        <v>3012.820757203792</v>
+        <v>3610.619845250254</v>
       </c>
       <c r="W32" t="n">
-        <v>2641.821722172079</v>
+        <v>3610.619845250254</v>
       </c>
       <c r="X32" t="n">
-        <v>2252.369117105136</v>
+        <v>3312.639204853199</v>
       </c>
       <c r="Y32" t="n">
-        <v>1855.878408025737</v>
+        <v>2916.1484957738</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J33" t="n">
-        <v>79.60214345477146</v>
+        <v>230.1545231602169</v>
       </c>
       <c r="K33" t="n">
-        <v>463.3277647610294</v>
+        <v>613.8801444664749</v>
       </c>
       <c r="L33" t="n">
-        <v>1032.93156304644</v>
+        <v>1183.483942751886</v>
       </c>
       <c r="M33" t="n">
-        <v>1041.870264436643</v>
+        <v>1192.422644142088</v>
       </c>
       <c r="N33" t="n">
-        <v>1800.707528786128</v>
+        <v>1210.963545555389</v>
       </c>
       <c r="O33" t="n">
-        <v>1803.225964441039</v>
+        <v>1579.228908959864</v>
       </c>
       <c r="P33" t="n">
-        <v>2284.514637912703</v>
+        <v>2060.517582431528</v>
       </c>
       <c r="Q33" t="n">
-        <v>2346.62573190295</v>
+        <v>2345.464263347374</v>
       </c>
       <c r="R33" t="n">
         <v>2346.62573190295</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.60214345477146</v>
+        <v>161.9796155631454</v>
       </c>
       <c r="C34" t="n">
         <v>79.60214345477146</v>
@@ -6882,28 +6882,28 @@
         <v>1286.899877594367</v>
       </c>
       <c r="R34" t="n">
-        <v>1178.239399723066</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="S34" t="n">
-        <v>981.3303236973795</v>
+        <v>1089.99080156868</v>
       </c>
       <c r="T34" t="n">
-        <v>747.0595210373034</v>
+        <v>855.7199989086042</v>
       </c>
       <c r="U34" t="n">
-        <v>461.6392175665025</v>
+        <v>570.2996954378034</v>
       </c>
       <c r="V34" t="n">
-        <v>195.6598723873267</v>
+        <v>570.2996954378034</v>
       </c>
       <c r="W34" t="n">
-        <v>195.6598723873267</v>
+        <v>570.2996954378034</v>
       </c>
       <c r="X34" t="n">
-        <v>79.60214345477146</v>
+        <v>570.2996954378034</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.60214345477146</v>
+        <v>347.1876342544467</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2477.053977632039</v>
+        <v>2472.56192648943</v>
       </c>
       <c r="C35" t="n">
-        <v>2083.87847613497</v>
+        <v>2079.386424992361</v>
       </c>
       <c r="D35" t="n">
-        <v>1698.437347351638</v>
+        <v>1693.945296209029</v>
       </c>
       <c r="E35" t="n">
-        <v>1295.853822468182</v>
+        <v>1291.361771325573</v>
       </c>
       <c r="F35" t="n">
-        <v>878.9593839981598</v>
+        <v>874.4673328555508</v>
       </c>
       <c r="G35" t="n">
-        <v>466.5522636789188</v>
+        <v>505.152036109283</v>
       </c>
       <c r="H35" t="n">
-        <v>150.2078621632208</v>
+        <v>188.807634593585</v>
       </c>
       <c r="I35" t="n">
         <v>79.60214345477146</v>
       </c>
       <c r="J35" t="n">
-        <v>287.1092503151861</v>
+        <v>287.1092503151863</v>
       </c>
       <c r="K35" t="n">
-        <v>740.2984558531753</v>
+        <v>740.2984558531755</v>
       </c>
       <c r="L35" t="n">
         <v>1350.490674728982</v>
@@ -6964,25 +6964,25 @@
         <v>3980.107172738573</v>
       </c>
       <c r="S35" t="n">
-        <v>3980.107172738573</v>
+        <v>3830.812654634548</v>
       </c>
       <c r="T35" t="n">
-        <v>3980.107172738573</v>
+        <v>3830.812654634548</v>
       </c>
       <c r="U35" t="n">
-        <v>3980.107172738573</v>
+        <v>3575.120375884568</v>
       </c>
       <c r="V35" t="n">
-        <v>3638.000363442092</v>
+        <v>3233.013566588086</v>
       </c>
       <c r="W35" t="n">
-        <v>3267.001328410379</v>
+        <v>2862.014531556374</v>
       </c>
       <c r="X35" t="n">
-        <v>2877.548723343436</v>
+        <v>2472.56192648943</v>
       </c>
       <c r="Y35" t="n">
-        <v>2877.548723343436</v>
+        <v>2472.56192648943</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J36" t="n">
-        <v>79.60214345477146</v>
+        <v>230.154523160217</v>
       </c>
       <c r="K36" t="n">
-        <v>463.3277647610294</v>
+        <v>230.154523160217</v>
       </c>
       <c r="L36" t="n">
-        <v>989.1118270980541</v>
+        <v>799.7583214456281</v>
       </c>
       <c r="M36" t="n">
-        <v>1717.285428943756</v>
+        <v>1527.93192329133</v>
       </c>
       <c r="N36" t="n">
-        <v>1735.826330357057</v>
+        <v>1546.472824704631</v>
       </c>
       <c r="O36" t="n">
-        <v>2346.62573190295</v>
+        <v>1864.17558987571</v>
       </c>
       <c r="P36" t="n">
-        <v>2346.62573190295</v>
+        <v>2345.464263347374</v>
       </c>
       <c r="Q36" t="n">
-        <v>2346.62573190295</v>
+        <v>2345.464263347374</v>
       </c>
       <c r="R36" t="n">
         <v>2346.62573190295</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2911.106319359698</v>
+        <v>246.8125577580801</v>
       </c>
       <c r="C37" t="n">
-        <v>2911.106319359698</v>
+        <v>246.8125577580801</v>
       </c>
       <c r="D37" t="n">
-        <v>2911.106319359698</v>
+        <v>246.8125577580801</v>
       </c>
       <c r="E37" t="n">
-        <v>2911.106319359698</v>
+        <v>236.9280782417985</v>
       </c>
       <c r="F37" t="n">
-        <v>2911.106319359698</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="G37" t="n">
-        <v>2911.106319359698</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="H37" t="n">
-        <v>2772.809438598979</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="I37" t="n">
-        <v>2772.809438598979</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="J37" t="n">
-        <v>2772.809438598979</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="K37" t="n">
-        <v>2893.240868620308</v>
+        <v>200.0335734761012</v>
       </c>
       <c r="L37" t="n">
-        <v>3106.758598029072</v>
+        <v>413.5513028848648</v>
       </c>
       <c r="M37" t="n">
-        <v>3345.125100780408</v>
+        <v>651.9178056362009</v>
       </c>
       <c r="N37" t="n">
-        <v>3579.151433915325</v>
+        <v>885.9441387711184</v>
       </c>
       <c r="O37" t="n">
-        <v>3788.812120737492</v>
+        <v>1095.604825593285</v>
       </c>
       <c r="P37" t="n">
-        <v>3948.86718777206</v>
+        <v>1255.659892627853</v>
       </c>
       <c r="Q37" t="n">
-        <v>3980.107172738573</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="R37" t="n">
-        <v>3980.107172738573</v>
+        <v>1178.239399723066</v>
       </c>
       <c r="S37" t="n">
-        <v>3980.107172738573</v>
+        <v>981.3303236973795</v>
       </c>
       <c r="T37" t="n">
-        <v>3745.836370078497</v>
+        <v>981.3303236973795</v>
       </c>
       <c r="U37" t="n">
-        <v>3460.416066607696</v>
+        <v>981.3303236973795</v>
       </c>
       <c r="V37" t="n">
-        <v>3194.436721428521</v>
+        <v>715.3509785182038</v>
       </c>
       <c r="W37" t="n">
-        <v>2911.106319359698</v>
+        <v>432.0205764493814</v>
       </c>
       <c r="X37" t="n">
-        <v>2911.106319359698</v>
+        <v>432.0205764493814</v>
       </c>
       <c r="Y37" t="n">
-        <v>2911.106319359698</v>
+        <v>432.0205764493814</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2515.653750062404</v>
+        <v>2080.56326855264</v>
       </c>
       <c r="C38" t="n">
-        <v>2122.478248565334</v>
+        <v>1696.928355910822</v>
       </c>
       <c r="D38" t="n">
-        <v>1737.037119782002</v>
+        <v>1311.48722712749</v>
       </c>
       <c r="E38" t="n">
-        <v>1334.453594898546</v>
+        <v>908.9037022440347</v>
       </c>
       <c r="F38" t="n">
-        <v>917.5591564285239</v>
+        <v>492.0092637740124</v>
       </c>
       <c r="G38" t="n">
-        <v>505.152036109283</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="H38" t="n">
-        <v>188.807634593585</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="I38" t="n">
         <v>79.60214345477146</v>
       </c>
       <c r="J38" t="n">
-        <v>287.1092503151863</v>
+        <v>287.1092503151861</v>
       </c>
       <c r="K38" t="n">
-        <v>740.2984558531755</v>
+        <v>740.2984558531753</v>
       </c>
       <c r="L38" t="n">
         <v>1350.490674728982</v>
@@ -7201,25 +7201,25 @@
         <v>3980.107172738573</v>
       </c>
       <c r="S38" t="n">
-        <v>3830.812654634548</v>
+        <v>3980.107172738573</v>
       </c>
       <c r="T38" t="n">
-        <v>3830.812654634548</v>
+        <v>3980.107172738573</v>
       </c>
       <c r="U38" t="n">
-        <v>3830.812654634548</v>
+        <v>3980.107172738573</v>
       </c>
       <c r="V38" t="n">
-        <v>3488.705845338067</v>
+        <v>3638.000363442091</v>
       </c>
       <c r="W38" t="n">
-        <v>3312.639204853199</v>
+        <v>3267.001328410379</v>
       </c>
       <c r="X38" t="n">
-        <v>3312.639204853199</v>
+        <v>2877.548723343436</v>
       </c>
       <c r="Y38" t="n">
-        <v>2916.1484957738</v>
+        <v>2481.058014264037</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J39" t="n">
-        <v>79.60214345477146</v>
+        <v>230.154523160217</v>
       </c>
       <c r="K39" t="n">
-        <v>419.5080288126429</v>
+        <v>613.8801444664749</v>
       </c>
       <c r="L39" t="n">
-        <v>989.1118270980541</v>
+        <v>1183.483942751886</v>
       </c>
       <c r="M39" t="n">
-        <v>1717.285428943756</v>
+        <v>1558.169571891652</v>
       </c>
       <c r="N39" t="n">
-        <v>1735.826330357057</v>
+        <v>1576.710473304952</v>
       </c>
       <c r="O39" t="n">
-        <v>2346.62573190295</v>
+        <v>1579.228908959864</v>
       </c>
       <c r="P39" t="n">
-        <v>2346.62573190295</v>
+        <v>2060.517582431528</v>
       </c>
       <c r="Q39" t="n">
-        <v>2346.62573190295</v>
+        <v>2345.464263347374</v>
       </c>
       <c r="R39" t="n">
         <v>2346.62573190295</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>249.8072613887823</v>
+        <v>546.3770921251706</v>
       </c>
       <c r="C40" t="n">
-        <v>79.60214345477146</v>
+        <v>546.3770921251706</v>
       </c>
       <c r="D40" t="n">
-        <v>79.60214345477146</v>
+        <v>392.486890382596</v>
       </c>
       <c r="E40" t="n">
-        <v>79.60214345477146</v>
+        <v>236.9280782417985</v>
       </c>
       <c r="F40" t="n">
         <v>79.60214345477146</v>
@@ -7359,25 +7359,25 @@
         <v>1286.899877594367</v>
       </c>
       <c r="S40" t="n">
-        <v>1089.99080156868</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="T40" t="n">
-        <v>1089.99080156868</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="U40" t="n">
-        <v>1089.99080156868</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="V40" t="n">
-        <v>892.2076634804571</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="W40" t="n">
-        <v>892.2076634804571</v>
+        <v>1003.569475525544</v>
       </c>
       <c r="X40" t="n">
-        <v>658.1273412634401</v>
+        <v>769.4891533085273</v>
       </c>
       <c r="Y40" t="n">
-        <v>435.0152800800835</v>
+        <v>546.3770921251706</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1252.232062238354</v>
+        <v>1197.664015254672</v>
       </c>
       <c r="C41" t="n">
-        <v>1252.232062238354</v>
+        <v>1197.664015254672</v>
       </c>
       <c r="D41" t="n">
-        <v>866.7909334550213</v>
+        <v>1197.664015254672</v>
       </c>
       <c r="E41" t="n">
-        <v>464.2074085715658</v>
+        <v>795.0804903712165</v>
       </c>
       <c r="F41" t="n">
-        <v>47.31297010154361</v>
+        <v>378.1860519011942</v>
       </c>
       <c r="G41" t="n">
         <v>47.31297010154361</v>
@@ -7411,16 +7411,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
-        <v>254.8200769619583</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K41" t="n">
-        <v>708.0092824999474</v>
+        <v>500.5021756395328</v>
       </c>
       <c r="L41" t="n">
-        <v>1293.50728750655</v>
+        <v>1086.000180646135</v>
       </c>
       <c r="M41" t="n">
-        <v>1346.140046263072</v>
+        <v>1086.000180646135</v>
       </c>
       <c r="N41" t="n">
         <v>1346.140046263072</v>
@@ -7441,22 +7441,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T41" t="n">
-        <v>2145.455695692886</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U41" t="n">
-        <v>1889.763416942905</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V41" t="n">
-        <v>1547.656607646423</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W41" t="n">
-        <v>1252.232062238354</v>
+        <v>1994.649470045468</v>
       </c>
       <c r="X41" t="n">
-        <v>1252.232062238354</v>
+        <v>1994.649470045468</v>
       </c>
       <c r="Y41" t="n">
-        <v>1252.232062238354</v>
+        <v>1598.158760966069</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>879.7619136071867</v>
+        <v>828.449967079728</v>
       </c>
       <c r="C42" t="n">
-        <v>729.1076831672789</v>
+        <v>677.7957366398202</v>
       </c>
       <c r="D42" t="n">
-        <v>599.0187157887592</v>
+        <v>547.7067692613006</v>
       </c>
       <c r="E42" t="n">
-        <v>462.5722248996469</v>
+        <v>411.2602783721883</v>
       </c>
       <c r="F42" t="n">
-        <v>338.1404187827787</v>
+        <v>286.8284722553201</v>
       </c>
       <c r="G42" t="n">
-        <v>218.484901325937</v>
+        <v>167.1729547984784</v>
       </c>
       <c r="H42" t="n">
-        <v>134.0921763203498</v>
+        <v>82.78022979289118</v>
       </c>
       <c r="I42" t="n">
-        <v>98.62491662900226</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J42" t="n">
-        <v>98.62491662900226</v>
+        <v>197.8653498069891</v>
       </c>
       <c r="K42" t="n">
-        <v>98.62491662900226</v>
+        <v>581.5909711132471</v>
       </c>
       <c r="L42" t="n">
-        <v>668.2287149144133</v>
+        <v>581.5909711132471</v>
       </c>
       <c r="M42" t="n">
-        <v>677.1674163046157</v>
+        <v>944.0622977423093</v>
       </c>
       <c r="N42" t="n">
-        <v>1262.665421311218</v>
+        <v>962.6031991556099</v>
       </c>
       <c r="O42" t="n">
-        <v>1599.413150689671</v>
+        <v>1548.101204162212</v>
       </c>
       <c r="P42" t="n">
-        <v>2080.701824161335</v>
+        <v>2029.389877633876</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.64850507718</v>
+        <v>2314.336558549722</v>
       </c>
       <c r="R42" t="n">
-        <v>2365.64850507718</v>
+        <v>2314.336558549722</v>
       </c>
       <c r="S42" t="n">
-        <v>2238.227531906565</v>
+        <v>2186.915585379106</v>
       </c>
       <c r="T42" t="n">
-        <v>2062.873334724417</v>
+        <v>2011.561388196958</v>
       </c>
       <c r="U42" t="n">
-        <v>1852.836790118275</v>
+        <v>1801.524843590817</v>
       </c>
       <c r="V42" t="n">
-        <v>1630.296788489342</v>
+        <v>1578.984841961884</v>
       </c>
       <c r="W42" t="n">
-        <v>1400.179542622629</v>
+        <v>1348.86759609517</v>
       </c>
       <c r="X42" t="n">
-        <v>1210.872464972641</v>
+        <v>1159.560518445182</v>
       </c>
       <c r="Y42" t="n">
-        <v>1031.558248048148</v>
+        <v>980.2463015206894</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>163.3706990340989</v>
+        <v>471.2206347761238</v>
       </c>
       <c r="C43" t="n">
-        <v>163.3706990340989</v>
+        <v>471.2206347761238</v>
       </c>
       <c r="D43" t="n">
-        <v>163.3706990340989</v>
+        <v>315.5875216786386</v>
       </c>
       <c r="E43" t="n">
-        <v>163.3706990340989</v>
+        <v>160.0287095378411</v>
       </c>
       <c r="F43" t="n">
-        <v>163.3706990340989</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G43" t="n">
         <v>47.31297010154361</v>
@@ -7593,28 +7593,28 @@
         <v>1254.610704241139</v>
       </c>
       <c r="R43" t="n">
-        <v>1145.950226369838</v>
+        <v>1254.610704241139</v>
       </c>
       <c r="S43" t="n">
-        <v>949.0411503441517</v>
+        <v>1254.610704241139</v>
       </c>
       <c r="T43" t="n">
-        <v>714.7703476840755</v>
+        <v>1254.610704241139</v>
       </c>
       <c r="U43" t="n">
-        <v>429.3500442132747</v>
+        <v>1254.610704241139</v>
       </c>
       <c r="V43" t="n">
-        <v>163.3706990340989</v>
+        <v>988.6313590619631</v>
       </c>
       <c r="W43" t="n">
-        <v>163.3706990340989</v>
+        <v>705.3009569931407</v>
       </c>
       <c r="X43" t="n">
-        <v>163.3706990340989</v>
+        <v>471.2206347761238</v>
       </c>
       <c r="Y43" t="n">
-        <v>163.3706990340989</v>
+        <v>471.2206347761238</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1179.210445219441</v>
+        <v>808.2114101877287</v>
       </c>
       <c r="C44" t="n">
-        <v>866.7909334550213</v>
+        <v>415.0359086906593</v>
       </c>
       <c r="D44" t="n">
-        <v>866.7909334550213</v>
+        <v>156.5184612403571</v>
       </c>
       <c r="E44" t="n">
-        <v>464.2074085715658</v>
+        <v>156.5184612403571</v>
       </c>
       <c r="F44" t="n">
-        <v>47.31297010154361</v>
+        <v>156.5184612403571</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154361</v>
+        <v>156.5184612403571</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>156.5184612403571</v>
       </c>
       <c r="I44" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>254.8200769619583</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K44" t="n">
-        <v>708.0092824999474</v>
+        <v>500.5021756395328</v>
       </c>
       <c r="L44" t="n">
-        <v>1293.50728750655</v>
+        <v>1086.000180646135</v>
       </c>
       <c r="M44" t="n">
-        <v>1646.140269185865</v>
+        <v>1086.000180646135</v>
       </c>
       <c r="N44" t="n">
-        <v>1646.140269185865</v>
+        <v>1671.498185652737</v>
       </c>
       <c r="O44" t="n">
-        <v>1646.140269185865</v>
+        <v>2236.320226649755</v>
       </c>
       <c r="P44" t="n">
-        <v>2100.826687002956</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q44" t="n">
         <v>2365.64850507718</v>
@@ -7687,13 +7687,13 @@
         <v>2365.64850507718</v>
       </c>
       <c r="W44" t="n">
-        <v>2365.64850507718</v>
+        <v>1994.649470045468</v>
       </c>
       <c r="X44" t="n">
-        <v>1976.195900010237</v>
+        <v>1605.196864978524</v>
       </c>
       <c r="Y44" t="n">
-        <v>1579.705190930838</v>
+        <v>1208.706155899126</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>197.8653498069891</v>
       </c>
       <c r="K45" t="n">
-        <v>285.1101651247729</v>
+        <v>581.5909711132471</v>
       </c>
       <c r="L45" t="n">
-        <v>854.7139634101841</v>
+        <v>1151.194769398658</v>
       </c>
       <c r="M45" t="n">
-        <v>1440.211968416786</v>
+        <v>1160.13347078886</v>
       </c>
       <c r="N45" t="n">
-        <v>2025.709973423388</v>
+        <v>1178.674372202161</v>
       </c>
       <c r="O45" t="n">
-        <v>2028.2284090783</v>
+        <v>1546.939735606636</v>
       </c>
       <c r="P45" t="n">
         <v>2028.2284090783</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>163.3706990340989</v>
+        <v>816.4324796078988</v>
       </c>
       <c r="C46" t="n">
-        <v>163.3706990340989</v>
+        <v>646.227361673888</v>
       </c>
       <c r="D46" t="n">
-        <v>163.3706990340989</v>
+        <v>490.5942485764027</v>
       </c>
       <c r="E46" t="n">
-        <v>163.3706990340989</v>
+        <v>490.5942485764027</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154361</v>
+        <v>490.5942485764027</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154361</v>
+        <v>322.6791466096479</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154361</v>
+        <v>170.2141864007431</v>
       </c>
       <c r="I46" t="n">
         <v>47.31297010154361</v>
@@ -7833,25 +7833,25 @@
         <v>1145.950226369838</v>
       </c>
       <c r="S46" t="n">
-        <v>949.0411503441517</v>
+        <v>1145.950226369838</v>
       </c>
       <c r="T46" t="n">
-        <v>714.7703476840755</v>
+        <v>911.6794237097619</v>
       </c>
       <c r="U46" t="n">
-        <v>429.3500442132747</v>
+        <v>816.4324796078988</v>
       </c>
       <c r="V46" t="n">
-        <v>163.3706990340989</v>
+        <v>816.4324796078988</v>
       </c>
       <c r="W46" t="n">
-        <v>163.3706990340989</v>
+        <v>816.4324796078988</v>
       </c>
       <c r="X46" t="n">
-        <v>163.3706990340989</v>
+        <v>816.4324796078988</v>
       </c>
       <c r="Y46" t="n">
-        <v>163.3706990340989</v>
+        <v>816.4324796078988</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>597.9750644161435</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>556.6502691852513</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8060,22 +8060,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>560.2818744604613</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>153.277245266684</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8224,16 +8224,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O5" t="n">
-        <v>212.9227975229111</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8294,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8303,19 +8303,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>434.5927516899133</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>457.1386964627902</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8470,10 +8470,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>595.8073947006751</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>569.9919810238545</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7907196684351</v>
+        <v>66.85930902235421</v>
       </c>
       <c r="K11" t="n">
         <v>66.89160419125324</v>
@@ -8698,7 +8698,7 @@
         <v>650.1686467261112</v>
       </c>
       <c r="M11" t="n">
-        <v>209.8365282367222</v>
+        <v>635.9970114584152</v>
       </c>
       <c r="N11" t="n">
         <v>633.6891733853209</v>
@@ -8707,10 +8707,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>64.19643144562944</v>
+        <v>86.34132681197362</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>79.83741748749453</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>20.49834389404698</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>602.6236718886489</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N12" t="n">
-        <v>593.4601867308691</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O12" t="n">
-        <v>384.423054565403</v>
+        <v>607.8744558939303</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>209.8526278445237</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>66.85930902235421</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
@@ -8935,19 +8935,19 @@
         <v>650.1686467261112</v>
       </c>
       <c r="M14" t="n">
-        <v>635.9970114584152</v>
+        <v>44.58488518912007</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6891733853209</v>
+        <v>42.27704711602587</v>
       </c>
       <c r="O14" t="n">
-        <v>48.67649131215622</v>
+        <v>474.1272593651326</v>
       </c>
       <c r="P14" t="n">
-        <v>192.9378788499365</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>79.83741748749453</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,25 +9005,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>11.2115456193539</v>
+        <v>484.755730865248</v>
       </c>
       <c r="N15" t="n">
-        <v>593.4601867308691</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O15" t="n">
-        <v>607.8744558939303</v>
+        <v>16.46232962463525</v>
       </c>
       <c r="P15" t="n">
-        <v>306.7500492397205</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>44.6289043174565</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>548.8886540019299</v>
+        <v>369.4413411611753</v>
       </c>
       <c r="P18" t="n">
-        <v>10.65174385439909</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.8956386498985</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
-        <v>69.84060434447255</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>44.62890431745648</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>24.96413205653383</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>3.153566667930519</v>
       </c>
       <c r="M21" t="n">
-        <v>521.5144519747564</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>181.5742900231857</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>39.89563864989847</v>
       </c>
       <c r="R21" t="n">
-        <v>71.01380490566048</v>
+        <v>69.84060434447255</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>44.62890431745648</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>24.96413205653383</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>208.8171916738308</v>
+        <v>369.4413411611752</v>
       </c>
       <c r="P24" t="n">
-        <v>10.65174385439906</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.89563864989847</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9898,7 +9898,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
-        <v>102.5176150018527</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>127.4683870602389</v>
+        <v>44.62890431745648</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>24.96413205653383</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>174.0761128367169</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>10.65174385439906</v>
       </c>
       <c r="Q27" t="n">
         <v>39.89563864989847</v>
       </c>
       <c r="R27" t="n">
-        <v>71.01380490566048</v>
+        <v>69.84060434447255</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>44.62890431745648</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>24.96413205653383</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>471.614320987059</v>
+        <v>369.4413411611752</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.89563864989847</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>69.84060434447255</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>44.62890431745648</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>369.4413411611752</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.6341174279252</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>69.84060434447255</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
-        <v>102.5176150018531</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>44.62890431745647</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>24.96413205653381</v>
       </c>
       <c r="L36" t="n">
-        <v>534.2485791295715</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>318.3680096122901</v>
       </c>
       <c r="P36" t="n">
-        <v>10.65174385439904</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>39.89563864989847</v>
       </c>
       <c r="R36" t="n">
-        <v>69.84060434447254</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>44.62890431745647</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>368.3034101957979</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>369.4413411611752</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>10.65174385439904</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>39.89563864989847</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>69.84060434447254</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7907196684351</v>
+        <v>54.18758142559202</v>
       </c>
       <c r="K41" t="n">
         <v>505.666843611017</v>
@@ -11068,10 +11068,10 @@
         <v>626.607844325769</v>
       </c>
       <c r="M41" t="n">
-        <v>71.53335562249417</v>
+        <v>18.36895283812854</v>
       </c>
       <c r="N41" t="n">
-        <v>15.63691357168184</v>
+        <v>278.4044545988904</v>
       </c>
       <c r="O41" t="n">
         <v>594.0482827698827</v>
@@ -11138,22 +11138,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>44.62890431745647</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>24.96413205653381</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>3.153566667930519</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>357.1036618574342</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6839430235368</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>337.6053471954962</v>
+        <v>588.8682518703946</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>263.7907196684351</v>
+        <v>54.18758142559202</v>
       </c>
       <c r="K44" t="n">
         <v>505.666843611017</v>
@@ -11305,19 +11305,19 @@
         <v>626.607844325769</v>
       </c>
       <c r="M44" t="n">
-        <v>374.5638838273356</v>
+        <v>18.36895283812854</v>
       </c>
       <c r="N44" t="n">
-        <v>15.63691357168184</v>
+        <v>607.0490398409769</v>
       </c>
       <c r="O44" t="n">
-        <v>23.52096863148093</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>502.0059847475129</v>
+        <v>173.3613995054266</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>63.71459949589109</v>
       </c>
       <c r="R44" t="n">
         <v>93.13909209400285</v>
@@ -11378,22 +11378,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>113.0902081351033</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>582.3831349660603</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6839430235368</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>369.4413411611752</v>
       </c>
       <c r="P45" t="n">
-        <v>10.65174385439904</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23260,13 +23260,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>308.1573045974222</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>8.517579329838611</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>17.79278641108309</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J13" t="n">
         <v>11.085091836852</v>
@@ -23472,19 +23472,19 @@
         <v>232.2142445012334</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>202.3864198427092</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>113.8693593270194</v>
+        <v>34.50923822796709</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>79.14273335119321</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>146.2192517207853</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,13 +23670,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T16" t="n">
-        <v>197.2190762031282</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>282.5697534131281</v>
@@ -23721,7 +23721,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>186.0153476290455</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.9908812904515</v>
       </c>
       <c r="U17" t="n">
         <v>253.1353559624811</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>72.28821068831127</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>36.27951009211168</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,13 +23907,13 @@
         <v>166.2359509470872</v>
       </c>
       <c r="H19" t="n">
-        <v>150.9403106068158</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>121.6722041362075</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>6.350224769714963</v>
+        <v>6.350224769714966</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>107.5738730925879</v>
       </c>
       <c r="S19" t="n">
-        <v>99.52430796304523</v>
+        <v>194.9399852654295</v>
       </c>
       <c r="T19" t="n">
         <v>231.9280946334754</v>
@@ -23949,7 +23949,7 @@
         <v>282.5661004360929</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>271.5835058657037</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>408.2830491160485</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.690902775779307</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1353559624811</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.2359509470872</v>
@@ -24147,10 +24147,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>121.6722041362075</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.350224769714952</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>194.9399852654295</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>231.9280946334754</v>
       </c>
       <c r="U22" t="n">
         <v>282.5661004360929</v>
       </c>
       <c r="V22" t="n">
-        <v>93.28982300994886</v>
+        <v>156.3989963563236</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>313.180957500541</v>
       </c>
       <c r="I23" t="n">
         <v>108.1134362274254</v>
@@ -24259,7 +24259,7 @@
         <v>147.8015729229842</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>84.08162196534846</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>11.98282924946869</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>159.4712148290935</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>40.85552379592762</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>166.2359509470872</v>
       </c>
       <c r="H25" t="n">
-        <v>150.9403106068158</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>121.6722041362075</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>107.5738730925879</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.9399852654295</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>231.9280946334754</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5661004360929</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24445,16 +24445,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>247.6981463031618</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>147.8015729229842</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>40.90525402250393</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>98.36636936995706</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -24669,7 +24669,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>105.9837889282939</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>408.2830491160485</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>244.8945395002511</v>
+        <v>237.0757552262053</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>147.8015729229842</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.9908812904515</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>39.24940521286305</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>107.5738730925879</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>194.9399852654295</v>
       </c>
       <c r="T31" t="n">
-        <v>231.9280946334754</v>
+        <v>137.1667082429918</v>
       </c>
       <c r="U31" t="n">
         <v>282.5661004360929</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>408.2830491160485</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>120.5454074417866</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>108.1134362274254</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,16 +24973,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1353559624811</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>90.55724502318913</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>86.94936936738044</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>107.5738730925879</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>116.842367351617</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>42.66090533724338</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>38.21377470606052</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>147.8015729229842</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.9908812904515</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1353559624811</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25320,16 +25320,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>144.2175892982707</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.2359509470872</v>
       </c>
       <c r="H37" t="n">
-        <v>14.02639865370355</v>
+        <v>150.9403106068158</v>
       </c>
       <c r="I37" t="n">
         <v>121.6722041362075</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>107.5738730925879</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>194.9399852654295</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>231.9280946334754</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5661004360929</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>9.445182966699463</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>313.180957500541</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>147.8015729229842</v>
       </c>
       <c r="T38" t="n">
         <v>217.9908812904515</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>192.9830706013765</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>1.725482241361533</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.2359509470872</v>
@@ -25599,7 +25599,7 @@
         <v>107.5738730925879</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.9399852654295</v>
       </c>
       <c r="T40" t="n">
         <v>231.9280946334754</v>
@@ -25608,10 +25608,10 @@
         <v>282.5661004360929</v>
       </c>
       <c r="V40" t="n">
-        <v>67.51424502004298</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>408.2830491160485</v>
+        <v>80.71869813439446</v>
       </c>
       <c r="H41" t="n">
         <v>313.180957500541</v>
@@ -25681,22 +25681,22 @@
         <v>147.8015729229842</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.9908812904515</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1353559624811</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>74.81874472740645</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,16 +25791,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>44.16409339722232</v>
       </c>
       <c r="G43" t="n">
-        <v>51.33879930385747</v>
+        <v>166.2359509470872</v>
       </c>
       <c r="H43" t="n">
         <v>150.9403106068158</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>107.5738730925879</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.9399852654295</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>231.9280946334754</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5661004360929</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25867,16 +25867,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>79.948429835323</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>125.6544445196998</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>408.2830491160485</v>
@@ -25885,7 +25885,7 @@
         <v>313.180957500541</v>
       </c>
       <c r="I44" t="n">
-        <v>108.1134362274254</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>40.85552379592706</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.2359509470872</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>150.9403106068158</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>121.6722041362075</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>6.350224769714949</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>194.9399852654295</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>188.2716257752485</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>564720.0079206569</v>
+        <v>564720.0079206571</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>564720.0079206569</v>
+        <v>564720.0079206571</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>719857.7528151817</v>
+        <v>719857.7528151819</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>719857.7528151817</v>
+        <v>719857.7528151819</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>719857.7528151816</v>
+        <v>719857.7528151819</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>719857.752815182</v>
+        <v>719857.7528151819</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>563499.8397549698</v>
+        <v>563499.8397549696</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>563499.8397549698</v>
+        <v>563499.8397549696</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>504930.098661399</v>
+        <v>504930.0986613992</v>
       </c>
       <c r="C2" t="n">
-        <v>504930.0986613993</v>
+        <v>504930.0986613992</v>
       </c>
       <c r="D2" t="n">
-        <v>504930.0986613992</v>
+        <v>504930.0986613989</v>
       </c>
       <c r="E2" t="n">
-        <v>325740.9663666611</v>
+        <v>325740.9663666615</v>
       </c>
       <c r="F2" t="n">
-        <v>325740.9663666613</v>
+        <v>325740.9663666612</v>
       </c>
       <c r="G2" t="n">
-        <v>414873.5707086346</v>
+        <v>414873.5707086344</v>
       </c>
       <c r="H2" t="n">
-        <v>414873.5707086346</v>
+        <v>414873.5707086345</v>
       </c>
       <c r="I2" t="n">
         <v>414873.5707086346</v>
       </c>
       <c r="J2" t="n">
-        <v>414873.5707086343</v>
+        <v>414873.5707086346</v>
       </c>
       <c r="K2" t="n">
+        <v>414873.5707086346</v>
+      </c>
+      <c r="L2" t="n">
         <v>414873.5707086344</v>
       </c>
-      <c r="L2" t="n">
-        <v>414873.5707086346</v>
-      </c>
       <c r="M2" t="n">
-        <v>414873.5707086348</v>
+        <v>414873.5707086344</v>
       </c>
       <c r="N2" t="n">
-        <v>414873.5707086344</v>
+        <v>414873.5707086349</v>
       </c>
       <c r="O2" t="n">
+        <v>327596.6713280121</v>
+      </c>
+      <c r="P2" t="n">
         <v>327596.6713280122</v>
-      </c>
-      <c r="P2" t="n">
-        <v>327596.6713280121</v>
       </c>
     </row>
     <row r="3">
@@ -26426,19 +26426,19 @@
         <v>245913.7790454219</v>
       </c>
       <c r="E4" t="n">
+        <v>76576.08178279981</v>
+      </c>
+      <c r="F4" t="n">
         <v>76576.08178279983</v>
       </c>
-      <c r="F4" t="n">
-        <v>76576.08178279981</v>
-      </c>
       <c r="G4" t="n">
-        <v>98207.36212511001</v>
+        <v>98207.36212511</v>
       </c>
       <c r="H4" t="n">
         <v>98207.36212511</v>
       </c>
       <c r="I4" t="n">
-        <v>98207.36212511001</v>
+        <v>98207.36212511</v>
       </c>
       <c r="J4" t="n">
         <v>98207.36212511</v>
@@ -26450,16 +26450,16 @@
         <v>98207.36212511</v>
       </c>
       <c r="M4" t="n">
-        <v>98207.36212511001</v>
+        <v>98207.36212511</v>
       </c>
       <c r="N4" t="n">
         <v>98207.36212511</v>
       </c>
       <c r="O4" t="n">
-        <v>72573.97890591163</v>
+        <v>72573.97890591164</v>
       </c>
       <c r="P4" t="n">
-        <v>72573.97890591163</v>
+        <v>72573.97890591164</v>
       </c>
     </row>
     <row r="5">
@@ -26502,7 +26502,7 @@
         <v>64554.27355972817</v>
       </c>
       <c r="M5" t="n">
-        <v>64554.27355972817</v>
+        <v>64554.27355972816</v>
       </c>
       <c r="N5" t="n">
         <v>64554.27355972816</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8764.943652940972</v>
+        <v>-8764.943652940798</v>
       </c>
       <c r="C6" t="n">
-        <v>189430.8623388043</v>
+        <v>189430.8623388041</v>
       </c>
       <c r="D6" t="n">
-        <v>189430.8623388041</v>
+        <v>189430.8623388039</v>
       </c>
       <c r="E6" t="n">
-        <v>90296.33153287045</v>
+        <v>89656.37034610391</v>
       </c>
       <c r="F6" t="n">
-        <v>209960.00424949</v>
+        <v>209320.043062723</v>
       </c>
       <c r="G6" t="n">
-        <v>112612.4304545369</v>
+        <v>112290.7999975627</v>
       </c>
       <c r="H6" t="n">
-        <v>252111.9350237964</v>
+        <v>251790.3045668222</v>
       </c>
       <c r="I6" t="n">
-        <v>252111.9350237964</v>
+        <v>251790.3045668222</v>
       </c>
       <c r="J6" t="n">
-        <v>97372.50065819279</v>
+        <v>97050.8702012188</v>
       </c>
       <c r="K6" t="n">
-        <v>252111.9350237963</v>
+        <v>251790.3045668223</v>
       </c>
       <c r="L6" t="n">
-        <v>252111.9350237964</v>
+        <v>251790.3045668221</v>
       </c>
       <c r="M6" t="n">
-        <v>252111.9350237966</v>
+        <v>251790.3045668221</v>
       </c>
       <c r="N6" t="n">
-        <v>252111.9350237962</v>
+        <v>251790.3045668226</v>
       </c>
       <c r="O6" t="n">
-        <v>215008.1906108256</v>
+        <v>214374.8569417777</v>
       </c>
       <c r="P6" t="n">
-        <v>215008.1906108255</v>
+        <v>214374.8569417777</v>
       </c>
     </row>
   </sheetData>
@@ -26822,7 +26822,7 @@
         <v>995.0267931846433</v>
       </c>
       <c r="M4" t="n">
-        <v>995.0267931846433</v>
+        <v>995.0267931846432</v>
       </c>
       <c r="N4" t="n">
         <v>995.0267931846432</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37.1385998579606</v>
+        <v>37.13859985796057</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.412126269295</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>65.09545259784534</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>206.2981679654904</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27444,10 +27444,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27551,16 +27551,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>262.7253494004271</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>161.1802841880369</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>156.2256971747477</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>185.4299401256673</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27797,7 +27797,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>85.53388175210557</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>219.2160219045234</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>256.4451960296569</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>344.5049398536307</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -28013,28 +28013,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>59.13171767977855</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>34.17649135834438</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -32226,19 +32226,19 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.748078840828336</v>
+        <v>0.7480788408283359</v>
       </c>
       <c r="H17" t="n">
-        <v>7.661262428633197</v>
+        <v>7.661262428633196</v>
       </c>
       <c r="I17" t="n">
-        <v>28.84030951103445</v>
+        <v>28.84030951103444</v>
       </c>
       <c r="J17" t="n">
         <v>63.49225651675403</v>
       </c>
       <c r="K17" t="n">
-        <v>95.15843384901751</v>
+        <v>95.1584338490175</v>
       </c>
       <c r="L17" t="n">
         <v>118.0524516740177</v>
@@ -32247,7 +32247,7 @@
         <v>131.3560987595986</v>
       </c>
       <c r="N17" t="n">
-        <v>133.4815777661022</v>
+        <v>133.4815777661021</v>
       </c>
       <c r="O17" t="n">
         <v>126.0428687926154</v>
@@ -32256,10 +32256,10 @@
         <v>107.5746724096658</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.78409892250102</v>
+        <v>80.784098922501</v>
       </c>
       <c r="R17" t="n">
-        <v>46.991507485183</v>
+        <v>46.99150748518299</v>
       </c>
       <c r="S17" t="n">
         <v>17.04684658537572</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.400257466580935</v>
+        <v>0.4002574665809349</v>
       </c>
       <c r="H18" t="n">
         <v>3.865644479873767</v>
@@ -32314,13 +32314,13 @@
         <v>13.78079435377342</v>
       </c>
       <c r="J18" t="n">
-        <v>37.81555301587685</v>
+        <v>37.81555301587684</v>
       </c>
       <c r="K18" t="n">
-        <v>64.63280327679949</v>
+        <v>64.63280327679948</v>
       </c>
       <c r="L18" t="n">
-        <v>86.90678018898767</v>
+        <v>86.90678018898765</v>
       </c>
       <c r="M18" t="n">
         <v>101.4161133525465</v>
@@ -32329,25 +32329,25 @@
         <v>104.1002960999248</v>
       </c>
       <c r="O18" t="n">
-        <v>95.23143328778939</v>
+        <v>95.23143328778936</v>
       </c>
       <c r="P18" t="n">
-        <v>76.43162096491557</v>
+        <v>76.43162096491555</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.09251450601549</v>
+        <v>51.09251450601548</v>
       </c>
       <c r="R18" t="n">
         <v>24.85107323210402</v>
       </c>
       <c r="S18" t="n">
-        <v>7.434606890220432</v>
+        <v>7.43460689022043</v>
       </c>
       <c r="T18" t="n">
-        <v>1.613318472753856</v>
+        <v>1.613318472753855</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02633272806453521</v>
+        <v>0.0263327280645352</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32393,10 +32393,10 @@
         <v>10.0912769730854</v>
       </c>
       <c r="J19" t="n">
-        <v>23.72426270244411</v>
+        <v>23.7242627024441</v>
       </c>
       <c r="K19" t="n">
-        <v>38.98625142564429</v>
+        <v>38.98625142564428</v>
       </c>
       <c r="L19" t="n">
         <v>49.88897932824624</v>
@@ -32405,10 +32405,10 @@
         <v>52.60093375057782</v>
       </c>
       <c r="N19" t="n">
-        <v>51.35020111485688</v>
+        <v>51.35020111485687</v>
       </c>
       <c r="O19" t="n">
-        <v>47.43022200046305</v>
+        <v>47.43022200046304</v>
       </c>
       <c r="P19" t="n">
         <v>40.58474874544378</v>
@@ -32417,13 +32417,13 @@
         <v>28.09877636006335</v>
       </c>
       <c r="R19" t="n">
-        <v>15.08810638116093</v>
+        <v>15.08810638116092</v>
       </c>
       <c r="S19" t="n">
-        <v>5.847937713846643</v>
+        <v>5.847937713846642</v>
       </c>
       <c r="T19" t="n">
-        <v>1.433766679972834</v>
+        <v>1.433766679972833</v>
       </c>
       <c r="U19" t="n">
         <v>0.01830340442518514</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>444.7268946856518</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>407.086431761155</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>467.8947524111494</v>
+      </c>
+      <c r="N3" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>66.19388044736931</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34944,16 +34944,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O5" t="n">
-        <v>63.35896009881473</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35023,19 +35023,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>347.5093868705986</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>303.8905267322986</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35190,10 +35190,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>503.4202726513632</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>196.9314106460809</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="M11" t="n">
-        <v>165.2516430476021</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N11" t="n">
         <v>591.4121262692951</v>
@@ -35427,10 +35427,10 @@
         <v>545.3717914577264</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>22.14489536634417</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.3739679419568</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="N12" t="n">
-        <v>591.4121262692951</v>
-      </c>
-      <c r="O12" t="n">
-        <v>367.9607249407678</v>
       </c>
       <c r="P12" t="n">
         <v>470.8960208784699</v>
       </c>
       <c r="Q12" t="n">
-        <v>277.6279320079687</v>
+        <v>159.7599909845678</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>196.9314106460809</v>
       </c>
       <c r="K14" t="n">
         <v>438.7752394197637</v>
@@ -35655,19 +35655,19 @@
         <v>591.4121262692951</v>
       </c>
       <c r="M14" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>425.4507680529764</v>
       </c>
       <c r="P14" t="n">
-        <v>128.7414474043071</v>
+        <v>437.8095533018835</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L15" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>280.8441510398885</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q15" t="n">
         <v>277.6279320079687</v>
@@ -35895,10 +35895,10 @@
         <v>682.8721594106901</v>
       </c>
       <c r="N17" t="n">
-        <v>666.6242885110133</v>
+        <v>666.6242885110132</v>
       </c>
       <c r="O17" t="n">
-        <v>570.5273141384017</v>
+        <v>570.5273141384016</v>
       </c>
       <c r="P17" t="n">
         <v>459.2792099162535</v>
@@ -35907,7 +35907,7 @@
         <v>267.4967859335601</v>
       </c>
       <c r="R17" t="n">
-        <v>9.378522907849721</v>
+        <v>9.378522907849714</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>152.0731108135813</v>
       </c>
       <c r="K18" t="n">
         <v>387.6016376830888</v>
@@ -35971,22 +35971,22 @@
         <v>575.3573720054657</v>
       </c>
       <c r="M18" t="n">
-        <v>9.028991303234619</v>
+        <v>9.028991303234605</v>
       </c>
       <c r="N18" t="n">
-        <v>766.5022872217016</v>
+        <v>18.72818324575816</v>
       </c>
       <c r="O18" t="n">
-        <v>551.4325284008304</v>
+        <v>371.9852155600757</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>486.1501752239029</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>287.8249302180261</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.173200561187919</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36059,10 +36059,10 @@
         <v>211.7784715375419</v>
       </c>
       <c r="P19" t="n">
-        <v>161.671784883402</v>
+        <v>161.6717848834019</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.55554037021584</v>
+        <v>31.55554037021583</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>387.6016376830888</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>575.3573720054658</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>530.5434432779911</v>
+        <v>735.5288907532347</v>
       </c>
       <c r="N21" t="n">
-        <v>18.72818324575823</v>
+        <v>766.5022872217017</v>
       </c>
       <c r="O21" t="n">
-        <v>2.543874398900542</v>
+        <v>616.9690924705985</v>
       </c>
       <c r="P21" t="n">
-        <v>486.1501752239029</v>
+        <v>170.9225461687867</v>
       </c>
       <c r="Q21" t="n">
-        <v>287.8249302180261</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.173200561187933</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>152.0731108135813</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>387.6016376830888</v>
       </c>
       <c r="L24" t="n">
         <v>575.3573720054658</v>
       </c>
       <c r="M24" t="n">
-        <v>735.5288907532347</v>
+        <v>9.028991303234662</v>
       </c>
       <c r="N24" t="n">
-        <v>766.5022872217017</v>
+        <v>18.72818324575823</v>
       </c>
       <c r="O24" t="n">
-        <v>211.3610660727313</v>
+        <v>371.9852155600757</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>486.1501752239029</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>287.8249302180261</v>
       </c>
       <c r="R24" t="n">
         <v>1.173200561187933</v>
@@ -36618,7 +36618,7 @@
         <v>267.4967859335602</v>
       </c>
       <c r="R26" t="n">
-        <v>9.378522907849806</v>
+        <v>9.378522907849742</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>82.83948274278244</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>387.6016376830888</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>575.3573720054658</v>
+        <v>170.9225461687864</v>
       </c>
       <c r="M27" t="n">
         <v>735.5288907532347</v>
       </c>
       <c r="N27" t="n">
-        <v>18.72818324575823</v>
+        <v>766.5022872217017</v>
       </c>
       <c r="O27" t="n">
-        <v>2.543874398900542</v>
+        <v>616.9690924705985</v>
       </c>
       <c r="P27" t="n">
-        <v>486.1501752239029</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.173200561187933</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>152.0731108135813</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>387.6016376830888</v>
       </c>
       <c r="L30" t="n">
         <v>575.3573720054658</v>
       </c>
       <c r="M30" t="n">
-        <v>735.5288907532347</v>
+        <v>9.028991303234662</v>
       </c>
       <c r="N30" t="n">
         <v>18.72818324575823</v>
       </c>
       <c r="O30" t="n">
-        <v>474.1581953859595</v>
+        <v>371.9852155600757</v>
       </c>
       <c r="P30" t="n">
         <v>486.1501752239029</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>287.8249302180261</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.173200561187933</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>152.0731108135813</v>
       </c>
       <c r="K33" t="n">
         <v>387.6016376830888</v>
@@ -37159,19 +37159,19 @@
         <v>9.028991303234662</v>
       </c>
       <c r="N33" t="n">
-        <v>766.5022872217017</v>
+        <v>18.72818324575823</v>
       </c>
       <c r="O33" t="n">
-        <v>2.543874398900542</v>
+        <v>371.9852155600757</v>
       </c>
       <c r="P33" t="n">
         <v>486.1501752239029</v>
       </c>
       <c r="Q33" t="n">
-        <v>62.73847877802671</v>
+        <v>287.8249302180261</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.173200561187933</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>267.4967859335602</v>
       </c>
       <c r="R35" t="n">
-        <v>9.378522907850265</v>
+        <v>9.378522907849749</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>152.0731108135813</v>
       </c>
       <c r="K36" t="n">
-        <v>387.6016376830888</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>531.095012461641</v>
+        <v>575.3573720054658</v>
       </c>
       <c r="M36" t="n">
         <v>735.5288907532347</v>
@@ -37399,16 +37399,16 @@
         <v>18.72818324575825</v>
       </c>
       <c r="O36" t="n">
-        <v>616.9690924705985</v>
+        <v>320.9118840111906</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>486.1501752239029</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.173200561187937</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>267.4967859335602</v>
       </c>
       <c r="R38" t="n">
-        <v>9.378522907849749</v>
+        <v>9.378522907849806</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>152.0731108135813</v>
       </c>
       <c r="K39" t="n">
-        <v>343.3392781392641</v>
+        <v>387.6016376830888</v>
       </c>
       <c r="L39" t="n">
         <v>575.3573720054658</v>
       </c>
       <c r="M39" t="n">
-        <v>735.5288907532347</v>
+        <v>378.4703324644099</v>
       </c>
       <c r="N39" t="n">
         <v>18.72818324575825</v>
       </c>
       <c r="O39" t="n">
-        <v>616.9690924705985</v>
+        <v>2.543874398900556</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>486.1501752239029</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>287.8249302180261</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.173200561187937</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>209.6031382428431</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>457.7668742807972</v>
@@ -37788,10 +37788,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="M41" t="n">
-        <v>53.16440278436563</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>262.7675410272086</v>
       </c>
       <c r="O41" t="n">
         <v>570.5273141384017</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>152.0731108135813</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>387.6016376830888</v>
       </c>
       <c r="L42" t="n">
-        <v>575.3573720054658</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>9.028991303234676</v>
+        <v>366.1326531606689</v>
       </c>
       <c r="N42" t="n">
+        <v>18.72818324575825</v>
+      </c>
+      <c r="O42" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="O42" t="n">
-        <v>340.1492215943967</v>
       </c>
       <c r="P42" t="n">
         <v>486.1501752239029</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>209.6031382428431</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>457.7668742807972</v>
@@ -38025,19 +38025,19 @@
         <v>591.4121262692951</v>
       </c>
       <c r="M44" t="n">
-        <v>356.1949309892071</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>570.5273141384017</v>
       </c>
       <c r="P44" t="n">
-        <v>459.2792099162536</v>
+        <v>130.6346246741673</v>
       </c>
       <c r="Q44" t="n">
-        <v>267.4967859335602</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>152.0731108135813</v>
       </c>
       <c r="K45" t="n">
-        <v>88.12607607856953</v>
+        <v>387.6016376830888</v>
       </c>
       <c r="L45" t="n">
         <v>575.3573720054658</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692951</v>
+        <v>9.028991303234676</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692951</v>
+        <v>18.72818324575825</v>
       </c>
       <c r="O45" t="n">
-        <v>2.543874398900556</v>
+        <v>371.9852155600757</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>486.1501752239029</v>
       </c>
       <c r="Q45" t="n">
         <v>287.8249302180261</v>
